--- a/natmiOut/YoungD2/LR-pairs_lrc2p/App-Ncstn.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/App-Ncstn.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>75.6179614928129</v>
+        <v>95.32301533333333</v>
       </c>
       <c r="H2">
-        <v>75.6179614928129</v>
+        <v>285.969046</v>
       </c>
       <c r="I2">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="J2">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.7497171380252</v>
+        <v>13.38628533333333</v>
       </c>
       <c r="N2">
-        <v>10.7497171380252</v>
+        <v>40.158856</v>
       </c>
       <c r="O2">
-        <v>0.06675090313445241</v>
+        <v>0.0790701185256053</v>
       </c>
       <c r="P2">
-        <v>0.06675090313445241</v>
+        <v>0.0790701185256053</v>
       </c>
       <c r="Q2">
-        <v>812.8716966018204</v>
+        <v>1276.021082085708</v>
       </c>
       <c r="R2">
-        <v>812.8716966018204</v>
+        <v>11484.18973877138</v>
       </c>
       <c r="S2">
-        <v>0.01212463028548671</v>
+        <v>0.01649607654421487</v>
       </c>
       <c r="T2">
-        <v>0.01212463028548671</v>
+        <v>0.01649607654421487</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>75.6179614928129</v>
+        <v>95.32301533333333</v>
       </c>
       <c r="H3">
-        <v>75.6179614928129</v>
+        <v>285.969046</v>
       </c>
       <c r="I3">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="J3">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.1906815765744</v>
+        <v>27.29177033333334</v>
       </c>
       <c r="N3">
-        <v>27.1906815765744</v>
+        <v>81.87531100000001</v>
       </c>
       <c r="O3">
-        <v>0.1688418893979462</v>
+        <v>0.1612070459649248</v>
       </c>
       <c r="P3">
-        <v>0.1688418893979462</v>
+        <v>0.1612070459649248</v>
       </c>
       <c r="Q3">
-        <v>2056.10391242074</v>
+        <v>2601.533841958145</v>
       </c>
       <c r="R3">
-        <v>2056.10391242074</v>
+        <v>23413.80457762331</v>
       </c>
       <c r="S3">
-        <v>0.03066843127994374</v>
+        <v>0.03363196893201833</v>
       </c>
       <c r="T3">
-        <v>0.03066843127994374</v>
+        <v>0.03363196893201833</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>75.6179614928129</v>
+        <v>95.32301533333333</v>
       </c>
       <c r="H4">
-        <v>75.6179614928129</v>
+        <v>285.969046</v>
       </c>
       <c r="I4">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="J4">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>36.8931194210668</v>
+        <v>40.05126633333333</v>
       </c>
       <c r="N4">
-        <v>36.8931194210668</v>
+        <v>120.153799</v>
       </c>
       <c r="O4">
-        <v>0.229089659679717</v>
+        <v>0.2365748448668895</v>
       </c>
       <c r="P4">
-        <v>0.229089659679717</v>
+        <v>0.2365748448668895</v>
       </c>
       <c r="Q4">
-        <v>2789.782483731977</v>
+        <v>3817.80747481175</v>
       </c>
       <c r="R4">
-        <v>2789.782483731977</v>
+        <v>34360.26727330575</v>
       </c>
       <c r="S4">
-        <v>0.0416118328803691</v>
+        <v>0.04935564562352593</v>
       </c>
       <c r="T4">
-        <v>0.0416118328803691</v>
+        <v>0.04935564562352592</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>75.6179614928129</v>
+        <v>95.32301533333333</v>
       </c>
       <c r="H5">
-        <v>75.6179614928129</v>
+        <v>285.969046</v>
       </c>
       <c r="I5">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="J5">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>40.0364929564534</v>
+        <v>40.10401433333334</v>
       </c>
       <c r="N5">
-        <v>40.0364929564534</v>
+        <v>120.312043</v>
       </c>
       <c r="O5">
-        <v>0.2486085939625346</v>
+        <v>0.2368864167860689</v>
       </c>
       <c r="P5">
-        <v>0.2486085939625346</v>
+        <v>0.2368864167860689</v>
       </c>
       <c r="Q5">
-        <v>3027.477982688368</v>
+        <v>3822.835573224554</v>
       </c>
       <c r="R5">
-        <v>3027.477982688368</v>
+        <v>34405.52015902098</v>
       </c>
       <c r="S5">
-        <v>0.04515725100406377</v>
+        <v>0.04942064760308091</v>
       </c>
       <c r="T5">
-        <v>0.04515725100406377</v>
+        <v>0.0494206476030809</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>75.6179614928129</v>
+        <v>95.32301533333333</v>
       </c>
       <c r="H6">
-        <v>75.6179614928129</v>
+        <v>285.969046</v>
       </c>
       <c r="I6">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="J6">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>28.9756106409394</v>
+        <v>29.373837</v>
       </c>
       <c r="N6">
-        <v>28.9756106409394</v>
+        <v>88.121511</v>
       </c>
       <c r="O6">
-        <v>0.1799254951847292</v>
+        <v>0.1735053986454552</v>
       </c>
       <c r="P6">
-        <v>0.1799254951847292</v>
+        <v>0.1735053986454552</v>
       </c>
       <c r="Q6">
-        <v>2191.076609677295</v>
+        <v>2800.002714749834</v>
       </c>
       <c r="R6">
-        <v>2191.076609677295</v>
+        <v>25200.02443274851</v>
       </c>
       <c r="S6">
-        <v>0.03268165681075254</v>
+        <v>0.03619772412460835</v>
       </c>
       <c r="T6">
-        <v>0.03268165681075254</v>
+        <v>0.03619772412460835</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>75.6179614928129</v>
+        <v>95.32301533333333</v>
       </c>
       <c r="H7">
-        <v>75.6179614928129</v>
+        <v>285.969046</v>
       </c>
       <c r="I7">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="J7">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.1966508542147</v>
+        <v>19.089213</v>
       </c>
       <c r="N7">
-        <v>17.1966508542147</v>
+        <v>57.267639</v>
       </c>
       <c r="O7">
-        <v>0.1067834586406205</v>
+        <v>0.1127561752110562</v>
       </c>
       <c r="P7">
-        <v>0.1067834586406205</v>
+        <v>0.1127561752110562</v>
       </c>
       <c r="Q7">
-        <v>1300.375682099355</v>
+        <v>1819.641343500266</v>
       </c>
       <c r="R7">
-        <v>1300.375682099355</v>
+        <v>16376.77209150239</v>
       </c>
       <c r="S7">
-        <v>0.01939614141272706</v>
+        <v>0.02352386124869854</v>
       </c>
       <c r="T7">
-        <v>0.01939614141272706</v>
+        <v>0.02352386124869853</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>86.6958799956228</v>
+        <v>87.85366600000002</v>
       </c>
       <c r="H8">
-        <v>86.6958799956228</v>
+        <v>263.560998</v>
       </c>
       <c r="I8">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="J8">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.7497171380252</v>
+        <v>13.38628533333333</v>
       </c>
       <c r="N8">
-        <v>10.7497171380252</v>
+        <v>40.158856</v>
       </c>
       <c r="O8">
-        <v>0.06675090313445241</v>
+        <v>0.0790701185256053</v>
       </c>
       <c r="P8">
-        <v>0.06675090313445241</v>
+        <v>0.0790701185256053</v>
       </c>
       <c r="Q8">
-        <v>931.9561869851226</v>
+        <v>1176.034240655366</v>
       </c>
       <c r="R8">
-        <v>931.9561869851226</v>
+        <v>10584.30816589829</v>
       </c>
       <c r="S8">
-        <v>0.0139008705269284</v>
+        <v>0.01520347204668321</v>
       </c>
       <c r="T8">
-        <v>0.0139008705269284</v>
+        <v>0.0152034720466832</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>86.6958799956228</v>
+        <v>87.85366600000002</v>
       </c>
       <c r="H9">
-        <v>86.6958799956228</v>
+        <v>263.560998</v>
       </c>
       <c r="I9">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="J9">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.1906815765744</v>
+        <v>27.29177033333334</v>
       </c>
       <c r="N9">
-        <v>27.1906815765744</v>
+        <v>81.87531100000001</v>
       </c>
       <c r="O9">
-        <v>0.1688418893979462</v>
+        <v>0.1612070459649248</v>
       </c>
       <c r="P9">
-        <v>0.1688418893979462</v>
+        <v>0.1612070459649248</v>
       </c>
       <c r="Q9">
-        <v>2357.320066961886</v>
+        <v>2397.682075413376</v>
       </c>
       <c r="R9">
-        <v>2357.320066961886</v>
+        <v>21579.13867872038</v>
       </c>
       <c r="S9">
-        <v>0.03516131069141179</v>
+        <v>0.03099662505580323</v>
       </c>
       <c r="T9">
-        <v>0.03516131069141179</v>
+        <v>0.03099662505580323</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>86.6958799956228</v>
+        <v>87.85366600000002</v>
       </c>
       <c r="H10">
-        <v>86.6958799956228</v>
+        <v>263.560998</v>
       </c>
       <c r="I10">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="J10">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>36.8931194210668</v>
+        <v>40.05126633333333</v>
       </c>
       <c r="N10">
-        <v>36.8931194210668</v>
+        <v>120.153799</v>
       </c>
       <c r="O10">
-        <v>0.229089659679717</v>
+        <v>0.2365748448668895</v>
       </c>
       <c r="P10">
-        <v>0.229089659679717</v>
+        <v>0.2365748448668895</v>
       </c>
       <c r="Q10">
-        <v>3198.481453992988</v>
+        <v>3518.650575325712</v>
       </c>
       <c r="R10">
-        <v>3198.481453992988</v>
+        <v>31667.8551779314</v>
       </c>
       <c r="S10">
-        <v>0.04770790429383993</v>
+        <v>0.04548822118835488</v>
       </c>
       <c r="T10">
-        <v>0.04770790429383993</v>
+        <v>0.04548822118835487</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>86.6958799956228</v>
+        <v>87.85366600000002</v>
       </c>
       <c r="H11">
-        <v>86.6958799956228</v>
+        <v>263.560998</v>
       </c>
       <c r="I11">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="J11">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>40.0364929564534</v>
+        <v>40.10401433333334</v>
       </c>
       <c r="N11">
-        <v>40.0364929564534</v>
+        <v>120.312043</v>
       </c>
       <c r="O11">
-        <v>0.2486085939625346</v>
+        <v>0.2368864167860689</v>
       </c>
       <c r="P11">
-        <v>0.2486085939625346</v>
+        <v>0.2368864167860689</v>
       </c>
       <c r="Q11">
-        <v>3470.998988798282</v>
+        <v>3523.284680499881</v>
       </c>
       <c r="R11">
-        <v>3470.998988798282</v>
+        <v>31709.56212449892</v>
       </c>
       <c r="S11">
-        <v>0.05177272088130313</v>
+        <v>0.04554812972336284</v>
       </c>
       <c r="T11">
-        <v>0.05177272088130313</v>
+        <v>0.04554812972336283</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>86.6958799956228</v>
+        <v>87.85366600000002</v>
       </c>
       <c r="H12">
-        <v>86.6958799956228</v>
+        <v>263.560998</v>
       </c>
       <c r="I12">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="J12">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>28.9756106409394</v>
+        <v>29.373837</v>
       </c>
       <c r="N12">
-        <v>28.9756106409394</v>
+        <v>88.121511</v>
       </c>
       <c r="O12">
-        <v>0.1799254951847292</v>
+        <v>0.1735053986454552</v>
       </c>
       <c r="P12">
-        <v>0.1799254951847292</v>
+        <v>0.1735053986454552</v>
       </c>
       <c r="Q12">
-        <v>2512.066062926774</v>
+        <v>2580.599264936443</v>
       </c>
       <c r="R12">
-        <v>2512.066062926774</v>
+        <v>23225.39338442798</v>
       </c>
       <c r="S12">
-        <v>0.03746947075784936</v>
+        <v>0.03336133203595208</v>
       </c>
       <c r="T12">
-        <v>0.03746947075784936</v>
+        <v>0.03336133203595208</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>86.6958799956228</v>
+        <v>87.85366600000002</v>
       </c>
       <c r="H13">
-        <v>86.6958799956228</v>
+        <v>263.560998</v>
       </c>
       <c r="I13">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="J13">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.1966508542147</v>
+        <v>19.089213</v>
       </c>
       <c r="N13">
-        <v>17.1966508542147</v>
+        <v>57.267639</v>
       </c>
       <c r="O13">
-        <v>0.1067834586406205</v>
+        <v>0.1127561752110562</v>
       </c>
       <c r="P13">
-        <v>0.1067834586406205</v>
+        <v>0.1127561752110562</v>
       </c>
       <c r="Q13">
-        <v>1490.878778783622</v>
+        <v>1677.057343104858</v>
       </c>
       <c r="R13">
-        <v>1490.878778783622</v>
+        <v>15093.51608794372</v>
       </c>
       <c r="S13">
-        <v>0.02223764718195608</v>
+        <v>0.02168057149626087</v>
       </c>
       <c r="T13">
-        <v>0.02223764718195608</v>
+        <v>0.02168057149626087</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>76.0350445338493</v>
+        <v>89.00545999999999</v>
       </c>
       <c r="H14">
-        <v>76.0350445338493</v>
+        <v>267.01638</v>
       </c>
       <c r="I14">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312883</v>
       </c>
       <c r="J14">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312882</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.7497171380252</v>
+        <v>13.38628533333333</v>
       </c>
       <c r="N14">
-        <v>10.7497171380252</v>
+        <v>40.158856</v>
       </c>
       <c r="O14">
-        <v>0.06675090313445241</v>
+        <v>0.0790701185256053</v>
       </c>
       <c r="P14">
-        <v>0.06675090313445241</v>
+        <v>0.0790701185256053</v>
       </c>
       <c r="Q14">
-        <v>817.3552213160292</v>
+        <v>1191.452483784587</v>
       </c>
       <c r="R14">
-        <v>817.3552213160292</v>
+        <v>10723.07235406128</v>
       </c>
       <c r="S14">
-        <v>0.01219150563588072</v>
+        <v>0.01540279517888508</v>
       </c>
       <c r="T14">
-        <v>0.01219150563588072</v>
+        <v>0.01540279517888507</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>76.0350445338493</v>
+        <v>89.00545999999999</v>
       </c>
       <c r="H15">
-        <v>76.0350445338493</v>
+        <v>267.01638</v>
       </c>
       <c r="I15">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312883</v>
       </c>
       <c r="J15">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312882</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>27.1906815765744</v>
+        <v>27.29177033333334</v>
       </c>
       <c r="N15">
-        <v>27.1906815765744</v>
+        <v>81.87531100000001</v>
       </c>
       <c r="O15">
-        <v>0.1688418893979462</v>
+        <v>0.1612070459649248</v>
       </c>
       <c r="P15">
-        <v>0.1688418893979462</v>
+        <v>0.1612070459649248</v>
       </c>
       <c r="Q15">
-        <v>2067.44468458055</v>
+        <v>2429.116572732687</v>
       </c>
       <c r="R15">
-        <v>2067.44468458055</v>
+        <v>21862.04915459418</v>
       </c>
       <c r="S15">
-        <v>0.03083758795025772</v>
+        <v>0.03140300225535599</v>
       </c>
       <c r="T15">
-        <v>0.03083758795025772</v>
+        <v>0.03140300225535598</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>76.0350445338493</v>
+        <v>89.00545999999999</v>
       </c>
       <c r="H16">
-        <v>76.0350445338493</v>
+        <v>267.01638</v>
       </c>
       <c r="I16">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312883</v>
       </c>
       <c r="J16">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312882</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>36.8931194210668</v>
+        <v>40.05126633333333</v>
       </c>
       <c r="N16">
-        <v>36.8931194210668</v>
+        <v>120.153799</v>
       </c>
       <c r="O16">
-        <v>0.229089659679717</v>
+        <v>0.2365748448668895</v>
       </c>
       <c r="P16">
-        <v>0.229089659679717</v>
+        <v>0.2365748448668895</v>
       </c>
       <c r="Q16">
-        <v>2805.169978173435</v>
+        <v>3564.781383580846</v>
       </c>
       <c r="R16">
-        <v>2805.169978173435</v>
+        <v>32083.03245222761</v>
       </c>
       <c r="S16">
-        <v>0.04184134964408789</v>
+        <v>0.04608458856402499</v>
       </c>
       <c r="T16">
-        <v>0.04184134964408789</v>
+        <v>0.04608458856402498</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>76.0350445338493</v>
+        <v>89.00545999999999</v>
       </c>
       <c r="H17">
-        <v>76.0350445338493</v>
+        <v>267.01638</v>
       </c>
       <c r="I17">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312883</v>
       </c>
       <c r="J17">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312882</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>40.0364929564534</v>
+        <v>40.10401433333334</v>
       </c>
       <c r="N17">
-        <v>40.0364929564534</v>
+        <v>120.312043</v>
       </c>
       <c r="O17">
-        <v>0.2486085939625346</v>
+        <v>0.2368864167860689</v>
       </c>
       <c r="P17">
-        <v>0.2486085939625346</v>
+        <v>0.2368864167860689</v>
       </c>
       <c r="Q17">
-        <v>3044.176524923078</v>
+        <v>3569.476243584927</v>
       </c>
       <c r="R17">
-        <v>3044.176524923078</v>
+        <v>32125.28619226434</v>
       </c>
       <c r="S17">
-        <v>0.04540632309225289</v>
+        <v>0.0461452825220473</v>
       </c>
       <c r="T17">
-        <v>0.04540632309225289</v>
+        <v>0.04614528252204728</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>76.0350445338493</v>
+        <v>89.00545999999999</v>
       </c>
       <c r="H18">
-        <v>76.0350445338493</v>
+        <v>267.01638</v>
       </c>
       <c r="I18">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312883</v>
       </c>
       <c r="J18">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312882</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>28.9756106409394</v>
+        <v>29.373837</v>
       </c>
       <c r="N18">
-        <v>28.9756106409394</v>
+        <v>88.121511</v>
       </c>
       <c r="O18">
-        <v>0.1799254951847292</v>
+        <v>0.1735053986454552</v>
       </c>
       <c r="P18">
-        <v>0.1799254951847292</v>
+        <v>0.1735053986454552</v>
       </c>
       <c r="Q18">
-        <v>2203.161845479305</v>
+        <v>2614.431874150019</v>
       </c>
       <c r="R18">
-        <v>2203.161845479305</v>
+        <v>23529.88686735018</v>
       </c>
       <c r="S18">
-        <v>0.03286191775060918</v>
+        <v>0.03379871141714964</v>
       </c>
       <c r="T18">
-        <v>0.03286191775060918</v>
+        <v>0.03379871141714963</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>76.0350445338493</v>
+        <v>89.00545999999999</v>
       </c>
       <c r="H19">
-        <v>76.0350445338493</v>
+        <v>267.01638</v>
       </c>
       <c r="I19">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312883</v>
       </c>
       <c r="J19">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312882</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>17.1966508542147</v>
+        <v>19.089213</v>
       </c>
       <c r="N19">
-        <v>17.1966508542147</v>
+        <v>57.267639</v>
       </c>
       <c r="O19">
-        <v>0.1067834586406205</v>
+        <v>0.1127561752110562</v>
       </c>
       <c r="P19">
-        <v>0.1067834586406205</v>
+        <v>0.1127561752110562</v>
       </c>
       <c r="Q19">
-        <v>1307.548113533272</v>
+        <v>1699.04418410298</v>
       </c>
       <c r="R19">
-        <v>1307.548113533272</v>
+        <v>15291.39765692682</v>
       </c>
       <c r="S19">
-        <v>0.01950312395345002</v>
+        <v>0.02196481179382527</v>
       </c>
       <c r="T19">
-        <v>0.01950312395345002</v>
+        <v>0.02196481179382527</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>67.6416318548069</v>
+        <v>68.108298</v>
       </c>
       <c r="H20">
-        <v>67.6416318548069</v>
+        <v>204.324894</v>
       </c>
       <c r="I20">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="J20">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.7497171380252</v>
+        <v>13.38628533333333</v>
       </c>
       <c r="N20">
-        <v>10.7497171380252</v>
+        <v>40.158856</v>
       </c>
       <c r="O20">
-        <v>0.06675090313445241</v>
+        <v>0.0790701185256053</v>
       </c>
       <c r="P20">
-        <v>0.06675090313445241</v>
+        <v>0.0790701185256053</v>
       </c>
       <c r="Q20">
-        <v>727.1284091936091</v>
+        <v>911.7171105956961</v>
       </c>
       <c r="R20">
-        <v>727.1284091936091</v>
+        <v>8205.453995361266</v>
       </c>
       <c r="S20">
-        <v>0.01084570070332408</v>
+        <v>0.01178644730420435</v>
       </c>
       <c r="T20">
-        <v>0.01084570070332408</v>
+        <v>0.01178644730420435</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>67.6416318548069</v>
+        <v>68.108298</v>
       </c>
       <c r="H21">
-        <v>67.6416318548069</v>
+        <v>204.324894</v>
       </c>
       <c r="I21">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="J21">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>27.1906815765744</v>
+        <v>27.29177033333334</v>
       </c>
       <c r="N21">
-        <v>27.1906815765744</v>
+        <v>81.87531100000001</v>
       </c>
       <c r="O21">
-        <v>0.1688418893979462</v>
+        <v>0.1612070459649248</v>
       </c>
       <c r="P21">
-        <v>0.1688418893979462</v>
+        <v>0.1612070459649248</v>
       </c>
       <c r="Q21">
-        <v>1839.222073083926</v>
+        <v>1858.796026810226</v>
       </c>
       <c r="R21">
-        <v>1839.222073083926</v>
+        <v>16729.16424129204</v>
       </c>
       <c r="S21">
-        <v>0.02743346550540861</v>
+        <v>0.0240300430524426</v>
       </c>
       <c r="T21">
-        <v>0.02743346550540861</v>
+        <v>0.0240300430524426</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>67.6416318548069</v>
+        <v>68.108298</v>
       </c>
       <c r="H22">
-        <v>67.6416318548069</v>
+        <v>204.324894</v>
       </c>
       <c r="I22">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="J22">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>36.8931194210668</v>
+        <v>40.05126633333333</v>
       </c>
       <c r="N22">
-        <v>36.8931194210668</v>
+        <v>120.153799</v>
       </c>
       <c r="O22">
-        <v>0.229089659679717</v>
+        <v>0.2365748448668895</v>
       </c>
       <c r="P22">
-        <v>0.229089659679717</v>
+        <v>0.2365748448668895</v>
       </c>
       <c r="Q22">
-        <v>2495.510801855227</v>
+        <v>2727.823582708034</v>
       </c>
       <c r="R22">
-        <v>2495.510801855227</v>
+        <v>24550.41224437231</v>
       </c>
       <c r="S22">
-        <v>0.03722253582259286</v>
+        <v>0.03526461063316797</v>
       </c>
       <c r="T22">
-        <v>0.03722253582259286</v>
+        <v>0.03526461063316796</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>67.6416318548069</v>
+        <v>68.108298</v>
       </c>
       <c r="H23">
-        <v>67.6416318548069</v>
+        <v>204.324894</v>
       </c>
       <c r="I23">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="J23">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>40.0364929564534</v>
+        <v>40.10401433333334</v>
       </c>
       <c r="N23">
-        <v>40.0364929564534</v>
+        <v>120.312043</v>
       </c>
       <c r="O23">
-        <v>0.2486085939625346</v>
+        <v>0.2368864167860689</v>
       </c>
       <c r="P23">
-        <v>0.2486085939625346</v>
+        <v>0.2368864167860689</v>
       </c>
       <c r="Q23">
-        <v>2708.13371731799</v>
+        <v>2731.416159210939</v>
       </c>
       <c r="R23">
-        <v>2708.13371731799</v>
+        <v>24582.74543289845</v>
       </c>
       <c r="S23">
-        <v>0.04039397634756799</v>
+        <v>0.03531105454997693</v>
       </c>
       <c r="T23">
-        <v>0.04039397634756799</v>
+        <v>0.03531105454997692</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>67.6416318548069</v>
+        <v>68.108298</v>
       </c>
       <c r="H24">
-        <v>67.6416318548069</v>
+        <v>204.324894</v>
       </c>
       <c r="I24">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="J24">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>28.9756106409394</v>
+        <v>29.373837</v>
       </c>
       <c r="N24">
-        <v>28.9756106409394</v>
+        <v>88.121511</v>
       </c>
       <c r="O24">
-        <v>0.1799254951847292</v>
+        <v>0.1735053986454552</v>
       </c>
       <c r="P24">
-        <v>0.1799254951847292</v>
+        <v>0.1735053986454552</v>
       </c>
       <c r="Q24">
-        <v>1959.957587742648</v>
+        <v>2000.602043799426</v>
       </c>
       <c r="R24">
-        <v>1959.957587742648</v>
+        <v>18005.41839419484</v>
       </c>
       <c r="S24">
-        <v>0.02923433209196173</v>
+        <v>0.02586327523294897</v>
       </c>
       <c r="T24">
-        <v>0.02923433209196173</v>
+        <v>0.02586327523294896</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>67.6416318548069</v>
+        <v>68.108298</v>
       </c>
       <c r="H25">
-        <v>67.6416318548069</v>
+        <v>204.324894</v>
       </c>
       <c r="I25">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="J25">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.1966508542147</v>
+        <v>19.089213</v>
       </c>
       <c r="N25">
-        <v>17.1966508542147</v>
+        <v>57.267639</v>
       </c>
       <c r="O25">
-        <v>0.1067834586406205</v>
+        <v>0.1127561752110562</v>
       </c>
       <c r="P25">
-        <v>0.1067834586406205</v>
+        <v>0.1127561752110562</v>
       </c>
       <c r="Q25">
-        <v>1163.209526216441</v>
+        <v>1300.133807589474</v>
       </c>
       <c r="R25">
-        <v>1163.209526216441</v>
+        <v>11701.20426830527</v>
       </c>
       <c r="S25">
-        <v>0.01735019869542708</v>
+        <v>0.01680779973686745</v>
       </c>
       <c r="T25">
-        <v>0.01735019869542708</v>
+        <v>0.01680779973686745</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>71.3219309856992</v>
+        <v>72.54370233333333</v>
       </c>
       <c r="H26">
-        <v>71.3219309856992</v>
+        <v>217.631107</v>
       </c>
       <c r="I26">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="J26">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.7497171380252</v>
+        <v>13.38628533333333</v>
       </c>
       <c r="N26">
-        <v>10.7497171380252</v>
+        <v>40.158856</v>
       </c>
       <c r="O26">
-        <v>0.06675090313445241</v>
+        <v>0.0790701185256053</v>
       </c>
       <c r="P26">
-        <v>0.06675090313445241</v>
+        <v>0.0790701185256053</v>
       </c>
       <c r="Q26">
-        <v>766.6905838340213</v>
+        <v>971.090698570399</v>
       </c>
       <c r="R26">
-        <v>766.6905838340213</v>
+        <v>8739.816287133592</v>
       </c>
       <c r="S26">
-        <v>0.01143580212130938</v>
+        <v>0.01255401397350613</v>
       </c>
       <c r="T26">
-        <v>0.01143580212130938</v>
+        <v>0.01255401397350613</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>71.3219309856992</v>
+        <v>72.54370233333333</v>
       </c>
       <c r="H27">
-        <v>71.3219309856992</v>
+        <v>217.631107</v>
       </c>
       <c r="I27">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="J27">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>27.1906815765744</v>
+        <v>27.29177033333334</v>
       </c>
       <c r="N27">
-        <v>27.1906815765744</v>
+        <v>81.87531100000001</v>
       </c>
       <c r="O27">
-        <v>0.1688418893979462</v>
+        <v>0.1612070459649248</v>
       </c>
       <c r="P27">
-        <v>0.1688418893979462</v>
+        <v>0.1612070459649248</v>
       </c>
       <c r="Q27">
-        <v>1939.291914858562</v>
+        <v>1979.846063211031</v>
       </c>
       <c r="R27">
-        <v>1939.291914858562</v>
+        <v>17818.61456889928</v>
       </c>
       <c r="S27">
-        <v>0.02892608708310261</v>
+        <v>0.02559494718622363</v>
       </c>
       <c r="T27">
-        <v>0.02892608708310261</v>
+        <v>0.02559494718622363</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>71.3219309856992</v>
+        <v>72.54370233333333</v>
       </c>
       <c r="H28">
-        <v>71.3219309856992</v>
+        <v>217.631107</v>
       </c>
       <c r="I28">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="J28">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>36.8931194210668</v>
+        <v>40.05126633333333</v>
       </c>
       <c r="N28">
-        <v>36.8931194210668</v>
+        <v>120.153799</v>
       </c>
       <c r="O28">
-        <v>0.229089659679717</v>
+        <v>0.2365748448668895</v>
       </c>
       <c r="P28">
-        <v>0.229089659679717</v>
+        <v>0.2365748448668895</v>
       </c>
       <c r="Q28">
-        <v>2631.288517196485</v>
+        <v>2905.467142958388</v>
       </c>
       <c r="R28">
-        <v>2631.288517196485</v>
+        <v>26149.20428662549</v>
       </c>
       <c r="S28">
-        <v>0.03924776884079599</v>
+        <v>0.0375611414731497</v>
       </c>
       <c r="T28">
-        <v>0.03924776884079599</v>
+        <v>0.03756114147314969</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>71.3219309856992</v>
+        <v>72.54370233333333</v>
       </c>
       <c r="H29">
-        <v>71.3219309856992</v>
+        <v>217.631107</v>
       </c>
       <c r="I29">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="J29">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>40.0364929564534</v>
+        <v>40.10401433333334</v>
       </c>
       <c r="N29">
-        <v>40.0364929564534</v>
+        <v>120.312043</v>
       </c>
       <c r="O29">
-        <v>0.2486085939625346</v>
+        <v>0.2368864167860689</v>
       </c>
       <c r="P29">
-        <v>0.2486085939625346</v>
+        <v>0.2368864167860689</v>
       </c>
       <c r="Q29">
-        <v>2855.479987549601</v>
+        <v>2909.293678169067</v>
       </c>
       <c r="R29">
-        <v>2855.479987549601</v>
+        <v>26183.6431035216</v>
       </c>
       <c r="S29">
-        <v>0.04259176359735436</v>
+        <v>0.03761060994872639</v>
       </c>
       <c r="T29">
-        <v>0.04259176359735436</v>
+        <v>0.03761060994872638</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>71.3219309856992</v>
+        <v>72.54370233333333</v>
       </c>
       <c r="H30">
-        <v>71.3219309856992</v>
+        <v>217.631107</v>
       </c>
       <c r="I30">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="J30">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>28.9756106409394</v>
+        <v>29.373837</v>
       </c>
       <c r="N30">
-        <v>28.9756106409394</v>
+        <v>88.121511</v>
       </c>
       <c r="O30">
-        <v>0.1799254951847292</v>
+        <v>0.1735053986454552</v>
       </c>
       <c r="P30">
-        <v>0.1799254951847292</v>
+        <v>0.1735053986454552</v>
       </c>
       <c r="Q30">
-        <v>2066.596502401571</v>
+        <v>2130.886887715853</v>
       </c>
       <c r="R30">
-        <v>2066.596502401571</v>
+        <v>19177.98198944268</v>
       </c>
       <c r="S30">
-        <v>0.03082493663593855</v>
+        <v>0.02754756461340617</v>
       </c>
       <c r="T30">
-        <v>0.03082493663593855</v>
+        <v>0.02754756461340616</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>71.3219309856992</v>
+        <v>72.54370233333333</v>
       </c>
       <c r="H31">
-        <v>71.3219309856992</v>
+        <v>217.631107</v>
       </c>
       <c r="I31">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="J31">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>17.1966508542147</v>
+        <v>19.089213</v>
       </c>
       <c r="N31">
-        <v>17.1966508542147</v>
+        <v>57.267639</v>
       </c>
       <c r="O31">
-        <v>0.1067834586406205</v>
+        <v>0.1127561752110562</v>
       </c>
       <c r="P31">
-        <v>0.1067834586406205</v>
+        <v>0.1127561752110562</v>
       </c>
       <c r="Q31">
-        <v>1226.498345409466</v>
+        <v>1384.802185649597</v>
       </c>
       <c r="R31">
-        <v>1226.498345409466</v>
+        <v>12463.21967084637</v>
       </c>
       <c r="S31">
-        <v>0.01829420195833847</v>
+        <v>0.01790237102958572</v>
       </c>
       <c r="T31">
-        <v>0.01829420195833847</v>
+        <v>0.01790237102958571</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>38.9944490781292</v>
+        <v>44.074633</v>
       </c>
       <c r="H32">
-        <v>38.9944490781292</v>
+        <v>132.223899</v>
       </c>
       <c r="I32">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194166</v>
       </c>
       <c r="J32">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194163</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>10.7497171380252</v>
+        <v>13.38628533333333</v>
       </c>
       <c r="N32">
-        <v>10.7497171380252</v>
+        <v>40.158856</v>
       </c>
       <c r="O32">
-        <v>0.06675090313445241</v>
+        <v>0.0790701185256053</v>
       </c>
       <c r="P32">
-        <v>0.06675090313445241</v>
+        <v>0.0790701185256053</v>
       </c>
       <c r="Q32">
-        <v>419.1792975430164</v>
+        <v>589.9956132999494</v>
       </c>
       <c r="R32">
-        <v>419.1792975430164</v>
+        <v>5309.960519699544</v>
       </c>
       <c r="S32">
-        <v>0.006252393861523113</v>
+        <v>0.007627313478111671</v>
       </c>
       <c r="T32">
-        <v>0.006252393861523113</v>
+        <v>0.007627313478111668</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>38.9944490781292</v>
+        <v>44.074633</v>
       </c>
       <c r="H33">
-        <v>38.9944490781292</v>
+        <v>132.223899</v>
       </c>
       <c r="I33">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194166</v>
       </c>
       <c r="J33">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194163</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>27.1906815765744</v>
+        <v>27.29177033333334</v>
       </c>
       <c r="N33">
-        <v>27.1906815765744</v>
+        <v>81.87531100000001</v>
       </c>
       <c r="O33">
-        <v>0.1688418893979462</v>
+        <v>0.1612070459649248</v>
       </c>
       <c r="P33">
-        <v>0.1688418893979462</v>
+        <v>0.1612070459649248</v>
       </c>
       <c r="Q33">
-        <v>1060.285648137356</v>
+        <v>1202.874761361954</v>
       </c>
       <c r="R33">
-        <v>1060.285648137356</v>
+        <v>10825.87285225759</v>
       </c>
       <c r="S33">
-        <v>0.01581500688782168</v>
+        <v>0.01555045948308101</v>
       </c>
       <c r="T33">
-        <v>0.01581500688782168</v>
+        <v>0.01555045948308101</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>38.9944490781292</v>
+        <v>44.074633</v>
       </c>
       <c r="H34">
-        <v>38.9944490781292</v>
+        <v>132.223899</v>
       </c>
       <c r="I34">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194166</v>
       </c>
       <c r="J34">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194163</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>36.8931194210668</v>
+        <v>40.05126633333333</v>
       </c>
       <c r="N34">
-        <v>36.8931194210668</v>
+        <v>120.153799</v>
       </c>
       <c r="O34">
-        <v>0.229089659679717</v>
+        <v>0.2365748448668895</v>
       </c>
       <c r="P34">
-        <v>0.229089659679717</v>
+        <v>0.2365748448668895</v>
       </c>
       <c r="Q34">
-        <v>1438.626866598129</v>
+        <v>1765.244864826922</v>
       </c>
       <c r="R34">
-        <v>1438.626866598129</v>
+        <v>15887.2037834423</v>
       </c>
       <c r="S34">
-        <v>0.02145826819803121</v>
+        <v>0.02282063738466605</v>
       </c>
       <c r="T34">
-        <v>0.02145826819803121</v>
+        <v>0.02282063738466604</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>38.9944490781292</v>
+        <v>44.074633</v>
       </c>
       <c r="H35">
-        <v>38.9944490781292</v>
+        <v>132.223899</v>
       </c>
       <c r="I35">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194166</v>
       </c>
       <c r="J35">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194163</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>40.0364929564534</v>
+        <v>40.10401433333334</v>
       </c>
       <c r="N35">
-        <v>40.0364929564534</v>
+        <v>120.312043</v>
       </c>
       <c r="O35">
-        <v>0.2486085939625346</v>
+        <v>0.2368864167860689</v>
       </c>
       <c r="P35">
-        <v>0.2486085939625346</v>
+        <v>0.2368864167860689</v>
       </c>
       <c r="Q35">
-        <v>1561.200985857301</v>
+        <v>1767.569713568407</v>
       </c>
       <c r="R35">
-        <v>1561.200985857301</v>
+        <v>15908.12742211566</v>
       </c>
       <c r="S35">
-        <v>0.02328655903999246</v>
+        <v>0.02285069243887453</v>
       </c>
       <c r="T35">
-        <v>0.02328655903999246</v>
+        <v>0.02285069243887452</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>38.9944490781292</v>
+        <v>44.074633</v>
       </c>
       <c r="H36">
-        <v>38.9944490781292</v>
+        <v>132.223899</v>
       </c>
       <c r="I36">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194166</v>
       </c>
       <c r="J36">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194163</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>28.9756106409394</v>
+        <v>29.373837</v>
       </c>
       <c r="N36">
-        <v>28.9756106409394</v>
+        <v>88.121511</v>
       </c>
       <c r="O36">
-        <v>0.1799254951847292</v>
+        <v>0.1735053986454552</v>
       </c>
       <c r="P36">
-        <v>0.1799254951847292</v>
+        <v>0.1735053986454552</v>
       </c>
       <c r="Q36">
-        <v>1129.88797364581</v>
+        <v>1294.641085576821</v>
       </c>
       <c r="R36">
-        <v>1129.88797364581</v>
+        <v>11651.76977019139</v>
       </c>
       <c r="S36">
-        <v>0.01685318113761781</v>
+        <v>0.01673679122139002</v>
       </c>
       <c r="T36">
-        <v>0.01685318113761781</v>
+        <v>0.01673679122139001</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>38.9944490781292</v>
+        <v>44.074633</v>
       </c>
       <c r="H37">
-        <v>38.9944490781292</v>
+        <v>132.223899</v>
       </c>
       <c r="I37">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194166</v>
       </c>
       <c r="J37">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194163</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>17.1966508542147</v>
+        <v>19.089213</v>
       </c>
       <c r="N37">
-        <v>17.1966508542147</v>
+        <v>57.267639</v>
       </c>
       <c r="O37">
-        <v>0.1067834586406205</v>
+        <v>0.1127561752110562</v>
       </c>
       <c r="P37">
-        <v>0.1067834586406205</v>
+        <v>0.1127561752110562</v>
       </c>
       <c r="Q37">
-        <v>670.5739260490421</v>
+        <v>841.350057233829</v>
       </c>
       <c r="R37">
-        <v>670.5739260490421</v>
+        <v>7572.15051510446</v>
       </c>
       <c r="S37">
-        <v>0.01000214543872179</v>
+        <v>0.01087675990581837</v>
       </c>
       <c r="T37">
-        <v>0.01000214543872179</v>
+        <v>0.01087675990581837</v>
       </c>
     </row>
   </sheetData>
